--- a/emails/leads.xlsx
+++ b/emails/leads.xlsx
@@ -14,22 +14,164 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>lead</t>
+  </si>
+  <si>
+    <t>truckbeast61@gmail.com</t>
+  </si>
+  <si>
+    <t>bert.nathan@gmail.com</t>
+  </si>
+  <si>
+    <t>handsome.al96@gmail.com</t>
+  </si>
+  <si>
+    <t>lawrencebefishing2@gmail.com</t>
+  </si>
+  <si>
+    <t>dkelly1402@gmail.com</t>
+  </si>
+  <si>
+    <t>randyl0228@gmail.com</t>
+  </si>
+  <si>
+    <t>mathisjimmy800@gmail.com</t>
+  </si>
+  <si>
+    <t>katygoodljkn67@gmail.com</t>
+  </si>
+  <si>
+    <t>dcowboykid67@gmail.com</t>
+  </si>
+  <si>
+    <t>charlespoe63@gmail.com</t>
+  </si>
+  <si>
+    <t>charlieb2432@gmail.com</t>
+  </si>
+  <si>
+    <t>jamesjenkins0706@gmail.com</t>
+  </si>
+  <si>
+    <t>peteypablo63@gmail.com</t>
+  </si>
+  <si>
+    <t>pagej954@gmail.com</t>
+  </si>
+  <si>
+    <t>gth1945@hotmail.com</t>
+  </si>
+  <si>
+    <t>sdgfdgfsdgfsdg589@gmail.com</t>
+  </si>
+  <si>
+    <t>emma47weu3645834@gmail.com</t>
+  </si>
+  <si>
+    <t>saleuftyujiuik@gmail.com</t>
+  </si>
+  <si>
+    <t>moms2ndson@gmail.com</t>
+  </si>
+  <si>
+    <t>dandelgado491@gmail.com</t>
+  </si>
+  <si>
+    <t>laustin2002@gmail.com</t>
+  </si>
+  <si>
+    <t>bigshark20ft@gmail.com</t>
+  </si>
+  <si>
+    <t>dale.e.royston@gmail.com</t>
+  </si>
+  <si>
+    <t>khemmi426@gmail.com</t>
+  </si>
+  <si>
+    <t>stevenwhedbee57@gmail.com</t>
+  </si>
+  <si>
+    <t>crbullingtonrebelbiker@gmail.com</t>
+  </si>
+  <si>
+    <t>pattayath@live.com</t>
+  </si>
+  <si>
+    <t>dougstoltzfus72@icloud.com</t>
+  </si>
+  <si>
+    <t>waylandhelmerwh@gmail.com</t>
+  </si>
+  <si>
+    <t>jamesware566@gmail.com</t>
+  </si>
+  <si>
+    <t>larryolmos23@gmail.com</t>
+  </si>
+  <si>
+    <t>jezowakimarc@gmail.com</t>
+  </si>
+  <si>
+    <t>jamesleger123@gmail.com</t>
+  </si>
+  <si>
+    <t>channonroy71@gmail.com</t>
+  </si>
+  <si>
+    <t>cptnjack66@gmail.com</t>
+  </si>
+  <si>
+    <t>fmchunt@gmail.com</t>
+  </si>
+  <si>
+    <t>eazymoney1210@gmail.com</t>
+  </si>
+  <si>
+    <t>jimmybierman@gmail.com</t>
+  </si>
+  <si>
+    <t>marioreed46@gmail.com</t>
+  </si>
+  <si>
+    <t>parksandrew159951@gmail.com</t>
+  </si>
+  <si>
+    <t>martinkingen720@gmail.com</t>
+  </si>
+  <si>
+    <t>bayareacali29@gmail.com</t>
+  </si>
+  <si>
+    <t>timmar60@gmail.com</t>
+  </si>
+  <si>
+    <t>woshikuzzaman@gmail.com</t>
+  </si>
+  <si>
+    <t>mypassingdays@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,13 +191,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -348,20 +496,276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="48.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A10" r:id="rId1"/>
+    <hyperlink ref="A50" r:id="rId2"/>
+    <hyperlink ref="A39" r:id="rId3"/>
+    <hyperlink ref="A26" r:id="rId4"/>
+    <hyperlink ref="A17" r:id="rId5"/>
+    <hyperlink ref="A2" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/emails/leads.xlsx
+++ b/emails/leads.xlsx
@@ -1,169 +1,613 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="lead" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <si>
     <t>lead</t>
   </si>
   <si>
-    <t>truckbeast61@gmail.com</t>
-  </si>
-  <si>
-    <t>bert.nathan@gmail.com</t>
-  </si>
-  <si>
-    <t>handsome.al96@gmail.com</t>
-  </si>
-  <si>
-    <t>lawrencebefishing2@gmail.com</t>
-  </si>
-  <si>
-    <t>dkelly1402@gmail.com</t>
-  </si>
-  <si>
-    <t>randyl0228@gmail.com</t>
-  </si>
-  <si>
-    <t>mathisjimmy800@gmail.com</t>
-  </si>
-  <si>
-    <t>katygoodljkn67@gmail.com</t>
-  </si>
-  <si>
-    <t>dcowboykid67@gmail.com</t>
-  </si>
-  <si>
-    <t>charlespoe63@gmail.com</t>
-  </si>
-  <si>
-    <t>charlieb2432@gmail.com</t>
-  </si>
-  <si>
-    <t>jamesjenkins0706@gmail.com</t>
-  </si>
-  <si>
-    <t>peteypablo63@gmail.com</t>
-  </si>
-  <si>
-    <t>pagej954@gmail.com</t>
-  </si>
-  <si>
-    <t>gth1945@hotmail.com</t>
-  </si>
-  <si>
-    <t>sdgfdgfsdgfsdg589@gmail.com</t>
-  </si>
-  <si>
-    <t>emma47weu3645834@gmail.com</t>
-  </si>
-  <si>
-    <t>saleuftyujiuik@gmail.com</t>
-  </si>
-  <si>
-    <t>moms2ndson@gmail.com</t>
-  </si>
-  <si>
-    <t>dandelgado491@gmail.com</t>
-  </si>
-  <si>
-    <t>laustin2002@gmail.com</t>
-  </si>
-  <si>
-    <t>bigshark20ft@gmail.com</t>
-  </si>
-  <si>
-    <t>dale.e.royston@gmail.com</t>
-  </si>
-  <si>
-    <t>khemmi426@gmail.com</t>
-  </si>
-  <si>
-    <t>stevenwhedbee57@gmail.com</t>
-  </si>
-  <si>
-    <t>crbullingtonrebelbiker@gmail.com</t>
-  </si>
-  <si>
-    <t>pattayath@live.com</t>
-  </si>
-  <si>
-    <t>dougstoltzfus72@icloud.com</t>
-  </si>
-  <si>
-    <t>waylandhelmerwh@gmail.com</t>
-  </si>
-  <si>
-    <t>jamesware566@gmail.com</t>
-  </si>
-  <si>
-    <t>larryolmos23@gmail.com</t>
-  </si>
-  <si>
-    <t>jezowakimarc@gmail.com</t>
-  </si>
-  <si>
-    <t>jamesleger123@gmail.com</t>
-  </si>
-  <si>
-    <t>channonroy71@gmail.com</t>
-  </si>
-  <si>
-    <t>cptnjack66@gmail.com</t>
-  </si>
-  <si>
-    <t>fmchunt@gmail.com</t>
-  </si>
-  <si>
-    <t>eazymoney1210@gmail.com</t>
-  </si>
-  <si>
-    <t>jimmybierman@gmail.com</t>
-  </si>
-  <si>
-    <t>marioreed46@gmail.com</t>
-  </si>
-  <si>
-    <t>parksandrew159951@gmail.com</t>
-  </si>
-  <si>
-    <t>martinkingen720@gmail.com</t>
-  </si>
-  <si>
-    <t>bayareacali29@gmail.com</t>
-  </si>
-  <si>
-    <t>timmar60@gmail.com</t>
+    <t>harry23034914@gmail.com</t>
+  </si>
+  <si>
+    <t>derfastle1@gmail.com</t>
+  </si>
+  <si>
+    <t>marimarry72@gmail.com</t>
+  </si>
+  <si>
+    <t>bublikhann4543@gmail.com</t>
+  </si>
+  <si>
+    <t>silvaj67@gmail.com</t>
+  </si>
+  <si>
+    <t>raymonddepuy1945@gmail.com</t>
+  </si>
+  <si>
+    <t>collyerjohn2@gmail.com</t>
+  </si>
+  <si>
+    <t>dpannullo69@gmail.com</t>
+  </si>
+  <si>
+    <t>coooperdavid6@gmail.com</t>
+  </si>
+  <si>
+    <t>williampetry4@gmail.com</t>
+  </si>
+  <si>
+    <t>ady77boulton@gmail.com</t>
+  </si>
+  <si>
+    <t>joeskinner55@gmail.com</t>
+  </si>
+  <si>
+    <t>pele67632@gmail.com</t>
+  </si>
+  <si>
+    <t>joneskr1313@gmail.com</t>
+  </si>
+  <si>
+    <t>ljpbrown73@gmail.com</t>
+  </si>
+  <si>
+    <t>kwmiller23@gmail.com</t>
+  </si>
+  <si>
+    <t>gonzalezdennis85@gmail.com</t>
+  </si>
+  <si>
+    <t>carlhagan1969@gmail.com</t>
+  </si>
+  <si>
+    <t>duals43@gmail.com</t>
+  </si>
+  <si>
+    <t>cort550@gmail.com</t>
+  </si>
+  <si>
+    <t>notredamedad27@live.com</t>
+  </si>
+  <si>
+    <t>mefixman@yahoo.com</t>
+  </si>
+  <si>
+    <t>joeyrwclmg@gmail.com</t>
+  </si>
+  <si>
+    <t>michael.hunter0309@gmail.com</t>
+  </si>
+  <si>
+    <t>stephencartwright30@yahoo.com</t>
+  </si>
+  <si>
+    <t>bvcolorick@yahoo.com</t>
+  </si>
+  <si>
+    <t>txt9037440402@gmail.com</t>
+  </si>
+  <si>
+    <t>hilario.gg@icloud.com</t>
+  </si>
+  <si>
+    <t>voodoorain1@gmail.com</t>
+  </si>
+  <si>
+    <t>phiddipe5432@gmail.com</t>
+  </si>
+  <si>
+    <t>rajibsoul78@gmail.com</t>
+  </si>
+  <si>
+    <t>andrefarley747@icloud.com</t>
+  </si>
+  <si>
+    <t>imogen69r@gmail.com</t>
+  </si>
+  <si>
+    <t>kbariff8486@gmail.com</t>
+  </si>
+  <si>
+    <t>pablilloolea@gmail.com</t>
+  </si>
+  <si>
+    <t>smithc840@yahoo.com</t>
+  </si>
+  <si>
+    <t>jonesluke19933@gmail.com</t>
+  </si>
+  <si>
+    <t>leoking1601@gmail.com</t>
+  </si>
+  <si>
+    <t>capecod500@yahoo.com</t>
+  </si>
+  <si>
+    <t>craig.s.emanuel@icloud.com</t>
+  </si>
+  <si>
+    <t>henryhayes40@gmail.com</t>
+  </si>
+  <si>
+    <t>tombagwell9@gmail.com</t>
+  </si>
+  <si>
+    <t>westadam1111@gmail.com</t>
+  </si>
+  <si>
+    <t>frankapplbee4222@gmail.com</t>
+  </si>
+  <si>
+    <t>kirby13006@gmail.com</t>
+  </si>
+  <si>
+    <t>bustercfsjr1971@yahoo.com</t>
+  </si>
+  <si>
+    <t>billyboy616111@gmail.com</t>
+  </si>
+  <si>
+    <t>gentry4122@gmail.com</t>
+  </si>
+  <si>
+    <t>ebrooks1062@gmail.com</t>
+  </si>
+  <si>
+    <t>damadenegro777@gmail.com</t>
+  </si>
+  <si>
+    <t>choudharyraj005@gmail.com</t>
+  </si>
+  <si>
+    <t>ggcarter01@gmail.com</t>
+  </si>
+  <si>
+    <t>xxxpregnentwomen1093@gmail.com</t>
+  </si>
+  <si>
+    <t>richardwj2@gmail.com</t>
+  </si>
+  <si>
+    <t>johnfaletti64@gmail.com</t>
+  </si>
+  <si>
+    <t>applewear55@gmail.com</t>
+  </si>
+  <si>
+    <t>fignewton1764@gmail.com</t>
+  </si>
+  <si>
+    <t>jessierivers2@gmail.com</t>
+  </si>
+  <si>
+    <t>roberthoedel@gmail.com</t>
+  </si>
+  <si>
+    <t>zepp5150@gmail.com</t>
+  </si>
+  <si>
+    <t>lilcausey92@icloud.com</t>
+  </si>
+  <si>
+    <t>xxxpregnentwomen1065@gmail.com</t>
+  </si>
+  <si>
+    <t>houcinejh07@gmail.com</t>
+  </si>
+  <si>
+    <t>wells7567@gmail.com</t>
+  </si>
+  <si>
+    <t>kjpet28@gmail.com</t>
+  </si>
+  <si>
+    <t>keithallen936@gmail.com</t>
+  </si>
+  <si>
+    <t>maxgotmaxime@gmail.com</t>
+  </si>
+  <si>
+    <t>son.dr.astr.iin@gmail.com</t>
+  </si>
+  <si>
+    <t>allupinyou12@gmail.com</t>
+  </si>
+  <si>
+    <t>jcnkomi@gmail.com</t>
+  </si>
+  <si>
+    <t>leomar.aguiar2010@gmail.com</t>
+  </si>
+  <si>
+    <t>bailee641lisa@gmail.com</t>
+  </si>
+  <si>
+    <t>wilsonhenderson@gmail.com</t>
+  </si>
+  <si>
+    <t>xxxpregnentwomen1033@gmail.com</t>
+  </si>
+  <si>
+    <t>jerryp454@gmail.com</t>
+  </si>
+  <si>
+    <t>pkwills@hotmail.com</t>
+  </si>
+  <si>
+    <t>lawrence.supercoop.cooper6@gmail.com</t>
+  </si>
+  <si>
+    <t>daddydeath1320@gmail.com</t>
+  </si>
+  <si>
+    <t>chukwuemekaonyenyilionwu@gmail.com</t>
+  </si>
+  <si>
+    <t>russdl2356@gmail.com</t>
+  </si>
+  <si>
+    <t>iaah77@gmail.com</t>
+  </si>
+  <si>
+    <t>plyler77@gmail.com</t>
+  </si>
+  <si>
+    <t>marino.panaro@wcb.ny.gov</t>
+  </si>
+  <si>
+    <t>georgetwight@yahoo.com</t>
+  </si>
+  <si>
+    <t>williamwoodrum266@gmail.com</t>
+  </si>
+  <si>
+    <t>jossalv02@gmail.com</t>
+  </si>
+  <si>
+    <t>hd78classic@gmail.com</t>
+  </si>
+  <si>
+    <t>rogersharman@hotmail.com</t>
+  </si>
+  <si>
+    <t>bboyprice10@gmail.com</t>
+  </si>
+  <si>
+    <t>curb.serven.records@gmail.com</t>
+  </si>
+  <si>
+    <t>cazador5@icloud.com</t>
+  </si>
+  <si>
+    <t>chuckstolsig@gmail.com</t>
+  </si>
+  <si>
+    <t>justmejoshb@gmail.com</t>
+  </si>
+  <si>
+    <t>ralphjro1961@gmail.com</t>
+  </si>
+  <si>
+    <t>eric42449@gmail.com</t>
+  </si>
+  <si>
+    <t>ctrjack@bellsouth.net</t>
+  </si>
+  <si>
+    <t>jameskelly12493@icloud.com</t>
+  </si>
+  <si>
+    <t>skipbritt@gmail.com</t>
+  </si>
+  <si>
+    <t>jbird54@att.net</t>
+  </si>
+  <si>
+    <t>rivermanssite@gmail.com</t>
+  </si>
+  <si>
+    <t>gomezadri9478@gmail.com</t>
+  </si>
+  <si>
+    <t>rogersjohnm@yahoo.com</t>
+  </si>
+  <si>
+    <t>toddmarsall@yahoo.com</t>
+  </si>
+  <si>
+    <t>jimmyeudy82@gmail.com</t>
+  </si>
+  <si>
+    <t>nes26811@gmail.com</t>
+  </si>
+  <si>
+    <t>amitomaderekjon007@gmail.com</t>
+  </si>
+  <si>
+    <t>waydejones@gmail.com</t>
+  </si>
+  <si>
+    <t>mrusa1956@gmail.com</t>
+  </si>
+  <si>
+    <t>andremary857@gmail.com</t>
+  </si>
+  <si>
+    <t>jaygarner1958@gmail.com</t>
+  </si>
+  <si>
+    <t>xxxpregnentwomen945@gmail.com</t>
+  </si>
+  <si>
+    <t>alextoolman1@gmail.com</t>
+  </si>
+  <si>
+    <t>emyoungsr@icloud.com</t>
+  </si>
+  <si>
+    <t>jimmyfifield1115@gmail.com</t>
+  </si>
+  <si>
+    <t>cglorenzsr@gmail.com</t>
+  </si>
+  <si>
+    <t>gberniegonzalez@gmail.com</t>
+  </si>
+  <si>
+    <t>super79v8@gmail.com</t>
+  </si>
+  <si>
+    <t>charlesmoody06@gmail.com</t>
+  </si>
+  <si>
+    <t>licho3198@gmail.com</t>
+  </si>
+  <si>
+    <t>woodardt24@gmail.com</t>
+  </si>
+  <si>
+    <t>bdherman474@gmail.com</t>
+  </si>
+  <si>
+    <t>d23nori@gmail.com</t>
+  </si>
+  <si>
+    <t>tamarjit09@gmail.com</t>
+  </si>
+  <si>
+    <t>jfgodmaster@gmail.com</t>
+  </si>
+  <si>
+    <t>pumpkingirl6993@gmail.com</t>
+  </si>
+  <si>
+    <t>jenresam@gmail.com</t>
+  </si>
+  <si>
+    <t>ron21040@gmail.com</t>
+  </si>
+  <si>
+    <t>erpowell1@verizon.net</t>
+  </si>
+  <si>
+    <t>josephbrocato62@gmail.com</t>
+  </si>
+  <si>
+    <t>kgnat083@gmail.com</t>
+  </si>
+  <si>
+    <t>subarutom46@yahoo.com</t>
+  </si>
+  <si>
+    <t>thurmancharlesw@gmail.com</t>
+  </si>
+  <si>
+    <t>creagorjustin@gmail.com</t>
+  </si>
+  <si>
+    <t>scaper2468.cb@gmail.com</t>
+  </si>
+  <si>
+    <t>yuzeyir650@gmail.com</t>
+  </si>
+  <si>
+    <t>daniel65cottle@gmail.com</t>
+  </si>
+  <si>
+    <t>crlowe1211@gmail.com</t>
+  </si>
+  <si>
+    <t>cowboysmith69@gmail.com</t>
+  </si>
+  <si>
+    <t>sfgil@hickorytech.net</t>
+  </si>
+  <si>
+    <t>jdtchallenger@yahoo.com</t>
+  </si>
+  <si>
+    <t>halhinchey1@yahoo.com</t>
+  </si>
+  <si>
+    <t>yorbivega40@gmail.com</t>
+  </si>
+  <si>
+    <t>bandk1963@yahoo.com</t>
+  </si>
+  <si>
+    <t>rrrincones@gmail.com</t>
+  </si>
+  <si>
+    <t>dgauzenne177@gmail.com</t>
+  </si>
+  <si>
+    <t>donald29w@gmail.com</t>
+  </si>
+  <si>
+    <t>razzel200@hotmail.com</t>
+  </si>
+  <si>
+    <t>roberts.marc46@gmail.com</t>
+  </si>
+  <si>
+    <t>kshadid714@gmail.com</t>
+  </si>
+  <si>
+    <t>mheck49@gmail.com</t>
+  </si>
+  <si>
+    <t>andrewsroger07@gmail.com</t>
+  </si>
+  <si>
+    <t>buddysteel69@gmail.com</t>
+  </si>
+  <si>
+    <t>rats-@outlook.com</t>
+  </si>
+  <si>
+    <t>cronsformula@sbcglobal.net</t>
+  </si>
+  <si>
+    <t>akawiliphotos@gmail.com</t>
+  </si>
+  <si>
+    <t>roybuddy1@gmail.com</t>
+  </si>
+  <si>
+    <t>hankrapersr67@gmail.com</t>
+  </si>
+  <si>
+    <t>harleydr@optonline.net</t>
+  </si>
+  <si>
+    <t>gregorycovington44@gmail.com</t>
+  </si>
+  <si>
+    <t>butcherman1942@gmail.com</t>
+  </si>
+  <si>
+    <t>claraay6@gmail.com</t>
+  </si>
+  <si>
+    <t>ike1916@gmail.com</t>
+  </si>
+  <si>
+    <t>lar12pat@gmail.com</t>
+  </si>
+  <si>
+    <t>noeljanna438@gmail.com</t>
+  </si>
+  <si>
+    <t>rlopez140@gmail.com</t>
+  </si>
+  <si>
+    <t>roj69roge@gmail.com</t>
+  </si>
+  <si>
+    <t>onewing370@gmail.com</t>
+  </si>
+  <si>
+    <t>chrisbonner8@gmail.com</t>
+  </si>
+  <si>
+    <t>reyhain@gmail.com</t>
+  </si>
+  <si>
+    <t>canfixit63@gmail.com</t>
+  </si>
+  <si>
+    <t>larryparmeley@gmail.com</t>
+  </si>
+  <si>
+    <t>sanchezsteve980@gmail.com</t>
+  </si>
+  <si>
+    <t>paupermiriam@gmail.com</t>
+  </si>
+  <si>
+    <t>toptobottom121@gmail.com</t>
+  </si>
+  <si>
+    <t>wiseguy50lives@gmail.com</t>
+  </si>
+  <si>
+    <t>ws.maines@gmail.com</t>
+  </si>
+  <si>
+    <t>gwh7471@gmail.com</t>
+  </si>
+  <si>
+    <t>scottcameron468@gmail.com</t>
+  </si>
+  <si>
+    <t>thumpert83@gmail.com</t>
+  </si>
+  <si>
+    <t>seighbeebennett1969@gmail.com</t>
+  </si>
+  <si>
+    <t>dennis.hannan@gmail.com</t>
+  </si>
+  <si>
+    <t>thomasdurham1962@gmail.com</t>
+  </si>
+  <si>
+    <t>tersus69@gmail.com</t>
+  </si>
+  <si>
+    <t>jc437122@gmail.com</t>
+  </si>
+  <si>
+    <t>kranzw413@gmail.com</t>
+  </si>
+  <si>
+    <t>mikedherweck@gmail.com</t>
+  </si>
+  <si>
+    <t>sindistical@gmail.com</t>
+  </si>
+  <si>
+    <t>donmanring1958@gmail.com</t>
+  </si>
+  <si>
+    <t>stevensbrandon134@gmail.com</t>
+  </si>
+  <si>
+    <t>realrobster15@gmail.com</t>
   </si>
   <si>
     <t>woshikuzzaman@gmail.com</t>
-  </si>
-  <si>
-    <t>mypassingdays@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,18 +615,340 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -190,24 +956,315 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -490,21 +1547,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.140625" customWidth="1"/>
+    <col min="1" max="1" width="48.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -514,258 +1571,965 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="2" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
-    <hyperlink ref="A50" r:id="rId2"/>
-    <hyperlink ref="A39" r:id="rId3"/>
-    <hyperlink ref="A26" r:id="rId4"/>
-    <hyperlink ref="A17" r:id="rId5"/>
-    <hyperlink ref="A2" r:id="rId6"/>
+    <hyperlink ref="A192" r:id="rId1" display="woshikuzzaman@gmail.com"/>
+    <hyperlink ref="A107" r:id="rId2" display="amitomaderekjon007@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/emails/leads.xlsx
+++ b/emails/leads.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="lead" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="188">
   <si>
     <t>lead</t>
   </si>
@@ -334,9 +334,6 @@
     <t>nes26811@gmail.com</t>
   </si>
   <si>
-    <t>amitomaderekjon007@gmail.com</t>
-  </si>
-  <si>
     <t>waydejones@gmail.com</t>
   </si>
   <si>
@@ -379,9 +376,6 @@
     <t>woodardt24@gmail.com</t>
   </si>
   <si>
-    <t>bdherman474@gmail.com</t>
-  </si>
-  <si>
     <t>d23nori@gmail.com</t>
   </si>
   <si>
@@ -421,9 +415,6 @@
     <t>scaper2468.cb@gmail.com</t>
   </si>
   <si>
-    <t>yuzeyir650@gmail.com</t>
-  </si>
-  <si>
     <t>daniel65cottle@gmail.com</t>
   </si>
   <si>
@@ -472,9 +463,6 @@
     <t>andrewsroger07@gmail.com</t>
   </si>
   <si>
-    <t>buddysteel69@gmail.com</t>
-  </si>
-  <si>
     <t>rats-@outlook.com</t>
   </si>
   <si>
@@ -538,9 +526,6 @@
     <t>paupermiriam@gmail.com</t>
   </si>
   <si>
-    <t>toptobottom121@gmail.com</t>
-  </si>
-  <si>
     <t>wiseguy50lives@gmail.com</t>
   </si>
   <si>
@@ -562,9 +547,6 @@
     <t>dennis.hannan@gmail.com</t>
   </si>
   <si>
-    <t>thomasdurham1962@gmail.com</t>
-  </si>
-  <si>
     <t>tersus69@gmail.com</t>
   </si>
   <si>
@@ -590,19 +572,19 @@
   </si>
   <si>
     <t>woshikuzzaman@gmail.com</t>
+  </si>
+  <si>
+    <t>mypassingdays@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasanurrahman1993@gmail.com </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="20">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,338 +599,16 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -956,309 +616,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1547,21 +922,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A192"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="A194" sqref="A194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="48.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2096,440 +1471,446 @@
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="2" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>187</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>187</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" t="s">
-        <v>174</v>
+      <c r="A175" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="183" spans="1:1">
-      <c r="A183" t="s">
-        <v>182</v>
+      <c r="A183" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A192" r:id="rId1" display="woshikuzzaman@gmail.com"/>
-    <hyperlink ref="A107" r:id="rId2" display="amitomaderekjon007@gmail.com"/>
+    <hyperlink ref="A192" r:id="rId1"/>
+    <hyperlink ref="A175" r:id="rId2"/>
+    <hyperlink ref="A107" r:id="rId3"/>
+    <hyperlink ref="A193" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>